--- a/doc/新建 Microsoft Excel 工作表.xlsx
+++ b/doc/新建 Microsoft Excel 工作表.xlsx
@@ -14,17 +14,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>honor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>breeding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medical</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>分成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱宠乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏损</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,8 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,47 +435,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E5"/>
+  <dimension ref="B3:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>25000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <f>B4*D4</f>
+        <v>2500</v>
+      </c>
+      <c r="F4">
+        <f>E4*C4</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12">
+        <f>E13*12+SUM(E21:E23)</f>
+        <v>409000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <f>F4-E12</f>
+        <v>-284000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13">
+        <f>SUM(E14:E18)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>8000</v>
+      </c>
+      <c r="E14">
+        <f>D14*C14</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>6000</v>
+      </c>
+      <c r="E15">
+        <f>D15*C15</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D5">
-        <f>30*5</f>
-        <v>150</v>
+      <c r="D16">
+        <v>6000</v>
+      </c>
+      <c r="E16">
+        <f>D16*C16</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5000</v>
+      </c>
+      <c r="E17">
+        <f>D17*C17</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>5000</v>
+      </c>
+      <c r="E18">
+        <f>D18*C18</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <f>C22*D22</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/新建 Microsoft Excel 工作表.xlsx
+++ b/doc/新建 Microsoft Excel 工作表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>分成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,42 @@
   </si>
   <si>
     <t>亏损</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,10 +164,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,13 +474,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9" style="3"/>
+    <col min="3" max="3" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
@@ -455,7 +492,7 @@
       <c r="B4">
         <v>25000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="1">
@@ -474,7 +511,7 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>10</v>
       </c>
     </row>
@@ -482,7 +519,7 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
     </row>
@@ -490,7 +527,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>10</v>
       </c>
     </row>
@@ -498,16 +535,16 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12">
         <f>E13*12+SUM(E21:E23)</f>
         <v>409000</v>
@@ -521,11 +558,11 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13">
         <f>SUM(E14:E18)</f>
         <v>30000</v>
@@ -535,7 +572,7 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14">
@@ -550,7 +587,7 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15">
@@ -565,7 +602,7 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16">
@@ -580,7 +617,7 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17">
@@ -595,7 +632,7 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18">
@@ -610,7 +647,7 @@
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>5000</v>
       </c>
       <c r="D21" t="s">
@@ -624,7 +661,7 @@
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>4000</v>
       </c>
       <c r="D22">
@@ -639,7 +676,7 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>20000</v>
       </c>
       <c r="D23" t="s">
@@ -658,4 +695,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <f>2000*12</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <f>100*12</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f>I12*12</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I13:I15)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/新建 Microsoft Excel 工作表.xlsx
+++ b/doc/新建 Microsoft Excel 工作表.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>分成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +119,50 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每场比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁殖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配种证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +520,7 @@
   <dimension ref="B3:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,7 +812,7 @@
       </c>
       <c r="I11">
         <f>I12*12</f>
-        <v>180000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.15">
@@ -776,7 +821,7 @@
       </c>
       <c r="I12">
         <f>SUM(I13:I15)</f>
-        <v>15000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.15">
@@ -792,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.15">
@@ -801,6 +846,201 @@
       </c>
       <c r="I15">
         <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F7:F8)</f>
+        <v>1320</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>280</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>E7*D7</f>
+        <v>560</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <f>H7*F6</f>
+        <v>158400</v>
+      </c>
+      <c r="J7">
+        <v>55</v>
+      </c>
+      <c r="K7">
+        <f>I7*J7</f>
+        <v>8712000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>380</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>E8*D8</f>
+        <v>760</v>
+      </c>
+      <c r="H8">
+        <v>550</v>
+      </c>
+      <c r="I8">
+        <f>H8*F6</f>
+        <v>726000</v>
+      </c>
+      <c r="K8">
+        <f>I8*J7</f>
+        <v>39930000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11">
+        <v>300</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <f>L11*K11</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <f>D12+E12</f>
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>30000</v>
+      </c>
+      <c r="H12">
+        <f>F12*G12</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>350</v>
+      </c>
+      <c r="H16">
+        <v>440</v>
+      </c>
+      <c r="I16">
+        <f>I21</f>
+        <v>157500</v>
+      </c>
+      <c r="J16">
+        <f>H16*I16/100000000</f>
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="I19">
+        <f>I18/0.05</f>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <f>63*5</f>
+        <v>315</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21">
+        <f>G21*H21</f>
+        <v>157500</v>
       </c>
     </row>
   </sheetData>
